--- a/ut3/PDs/UT3-TA7/Sci Kit Learn/Prediccion.xlsx
+++ b/ut3/PDs/UT3-TA7/Sci Kit Learn/Prediccion.xlsx
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6882,7 +6882,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6914,7 +6914,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -8426,7 +8426,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8682,7 +8682,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8834,7 +8834,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8922,7 +8922,7 @@
         <v>1065</v>
       </c>
       <c r="B1067" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -9210,7 +9210,7 @@
         <v>1101</v>
       </c>
       <c r="B1103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9522,7 +9522,7 @@
         <v>1140</v>
       </c>
       <c r="B1142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9906,7 +9906,7 @@
         <v>1188</v>
       </c>
       <c r="B1190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -10466,7 +10466,7 @@
         <v>1258</v>
       </c>
       <c r="B1260" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -11002,7 +11002,7 @@
         <v>1325</v>
       </c>
       <c r="B1327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11602,7 +11602,7 @@
         <v>1400</v>
       </c>
       <c r="B1402" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11810,7 +11810,7 @@
         <v>1426</v>
       </c>
       <c r="B1428" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -11898,7 +11898,7 @@
         <v>1437</v>
       </c>
       <c r="B1439" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -12138,7 +12138,7 @@
         <v>1467</v>
       </c>
       <c r="B1469" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12346,7 +12346,7 @@
         <v>1493</v>
       </c>
       <c r="B1495" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -12986,7 +12986,7 @@
         <v>1573</v>
       </c>
       <c r="B1575" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -13506,7 +13506,7 @@
         <v>1638</v>
       </c>
       <c r="B1640" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13570,7 +13570,7 @@
         <v>1646</v>
       </c>
       <c r="B1648" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13714,7 +13714,7 @@
         <v>1664</v>
       </c>
       <c r="B1666" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -14034,7 +14034,7 @@
         <v>1704</v>
       </c>
       <c r="B1706" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14050,7 +14050,7 @@
         <v>1706</v>
       </c>
       <c r="B1708" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14074,7 +14074,7 @@
         <v>1709</v>
       </c>
       <c r="B1711" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14282,7 +14282,7 @@
         <v>1735</v>
       </c>
       <c r="B1737" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
